--- a/database/FileExcel/Barang.xlsx
+++ b/database/FileExcel/Barang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED4823F-C602-43C1-A941-8FB722730E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4520CE4-133B-4232-B10D-1C6065E0E176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>mesh-grass</t>
+  </si>
+  <si>
+    <t>hpp</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -533,21 +536,24 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
         <v>23</v>
       </c>
       <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -564,16 +570,19 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
+      <c r="E2" s="2">
+        <v>65000</v>
       </c>
       <c r="F2" s="2">
         <v>130000</v>
       </c>
       <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10</v>
       </c>
       <c r="L2" s="1"/>
@@ -592,16 +601,19 @@
       <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
+      <c r="E3" s="2">
+        <v>65000</v>
       </c>
       <c r="F3" s="2">
         <v>130000</v>
       </c>
       <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>10</v>
       </c>
       <c r="L3" s="1"/>
@@ -620,16 +632,19 @@
       <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
+      <c r="E4" s="2">
+        <v>65000</v>
       </c>
       <c r="F4" s="2">
         <v>130000</v>
       </c>
       <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>10</v>
       </c>
       <c r="L4" s="1"/>
@@ -648,16 +663,19 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>25</v>
+      <c r="E5" s="2">
+        <v>65000</v>
       </c>
       <c r="F5" s="2">
         <v>130000</v>
       </c>
       <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>10</v>
       </c>
       <c r="L5" s="1"/>
@@ -676,16 +694,19 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
-        <v>25</v>
+      <c r="E6" s="2">
+        <v>180000</v>
       </c>
       <c r="F6" s="2">
         <v>375000</v>
       </c>
       <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>10</v>
       </c>
       <c r="L6" s="1"/>
@@ -704,16 +725,19 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
+      <c r="E7" s="2">
+        <v>180000</v>
       </c>
       <c r="F7" s="2">
         <v>375000</v>
       </c>
       <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
         <v>9</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>10</v>
       </c>
       <c r="L7" s="1"/>
@@ -732,16 +756,19 @@
       <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
-        <v>25</v>
+      <c r="E8" s="2">
+        <v>250000</v>
       </c>
       <c r="F8" s="2">
         <v>580000</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8">
         <v>10</v>
       </c>
       <c r="L8" s="1"/>
@@ -760,16 +787,19 @@
       <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
-        <v>25</v>
+      <c r="E9" s="2">
+        <v>60000</v>
       </c>
       <c r="F9" s="2">
         <v>100000</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9">
         <v>10</v>
       </c>
       <c r="L9" s="1"/>
@@ -788,16 +818,19 @@
       <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
-        <v>25</v>
+      <c r="E10" s="2">
+        <v>60000</v>
       </c>
       <c r="F10" s="2">
         <v>110000</v>
       </c>
       <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
         <v>11</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>10</v>
       </c>
       <c r="L10" s="1"/>
@@ -816,16 +849,19 @@
       <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
-        <v>25</v>
+      <c r="E11" s="2">
+        <v>60000</v>
       </c>
       <c r="F11" s="2">
         <v>110000</v>
       </c>
       <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
         <v>5</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>10</v>
       </c>
       <c r="L11" s="1"/>

--- a/database/FileExcel/Barang.xlsx
+++ b/database/FileExcel/Barang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4520CE4-133B-4232-B10D-1C6065E0E176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E8A4FA-AE86-4C84-AECD-E8FA6542E6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
   </bookViews>
@@ -44,24 +44,12 @@
     <t>qty</t>
   </si>
   <si>
-    <t>Tees Anchor</t>
-  </si>
-  <si>
-    <t>Tees Basic</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
-    <t>Tees Snow</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
-    <t>Tees Wolferine</t>
-  </si>
-  <si>
     <t>XL</t>
   </si>
   <si>
@@ -71,24 +59,6 @@
     <t>3XL</t>
   </si>
   <si>
-    <t>Windbreaker Hopeless</t>
-  </si>
-  <si>
-    <t>Windbreaker No Love</t>
-  </si>
-  <si>
-    <t>Varsity Rose</t>
-  </si>
-  <si>
-    <t>Mesh Basic</t>
-  </si>
-  <si>
-    <t>Mesh Daisy</t>
-  </si>
-  <si>
-    <t>Mesh Grass</t>
-  </si>
-  <si>
     <t>created_at</t>
   </si>
   <si>
@@ -113,37 +83,67 @@
     <t>available</t>
   </si>
   <si>
-    <t>tees-anchor</t>
-  </si>
-  <si>
-    <t>tees-basic</t>
-  </si>
-  <si>
-    <t>tees-snow</t>
-  </si>
-  <si>
-    <t>tees-wolferine</t>
-  </si>
-  <si>
-    <t>windbreaker-no-love</t>
-  </si>
-  <si>
-    <t>windbreaker-hopeless</t>
-  </si>
-  <si>
-    <t>varsity-rose</t>
-  </si>
-  <si>
-    <t>mesh-basic</t>
-  </si>
-  <si>
-    <t>mesh-daisy</t>
-  </si>
-  <si>
-    <t>mesh-grass</t>
-  </si>
-  <si>
     <t>hpp</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Wolferine</t>
+  </si>
+  <si>
+    <t>Hopeless</t>
+  </si>
+  <si>
+    <t>No Love</t>
+  </si>
+  <si>
+    <t>Rose Coloured</t>
+  </si>
+  <si>
+    <t>Daisy</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>anchor</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>wolferine</t>
+  </si>
+  <si>
+    <t>hopeless</t>
+  </si>
+  <si>
+    <t>no-love</t>
+  </si>
+  <si>
+    <t>rose-coloured</t>
+  </si>
+  <si>
+    <t>daisy</t>
+  </si>
+  <si>
+    <t>grass</t>
+  </si>
+  <si>
+    <t>Basic Red</t>
+  </si>
+  <si>
+    <t>basic-red</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -527,34 +527,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -577,10 +577,10 @@
         <v>130000</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>10</v>
@@ -596,10 +596,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2">
         <v>65000</v>
@@ -608,10 +608,10 @@
         <v>130000</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -639,10 +639,10 @@
         <v>130000</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -670,10 +670,10 @@
         <v>130000</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -689,10 +689,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2">
         <v>180000</v>
@@ -701,10 +701,10 @@
         <v>375000</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -720,10 +720,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2">
         <v>180000</v>
@@ -732,10 +732,10 @@
         <v>375000</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -751,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
@@ -763,10 +763,10 @@
         <v>580000</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I8">
         <v>10</v>
@@ -782,10 +782,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2">
         <v>60000</v>
@@ -794,10 +794,10 @@
         <v>100000</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I9">
         <v>10</v>
@@ -813,10 +813,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2">
         <v>60000</v>
@@ -825,10 +825,10 @@
         <v>110000</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -844,10 +844,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2">
         <v>60000</v>
@@ -856,10 +856,10 @@
         <v>110000</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>10</v>

--- a/database/FileExcel/Barang.xlsx
+++ b/database/FileExcel/Barang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E8A4FA-AE86-4C84-AECD-E8FA6542E6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DB09E7-E950-4EDE-B47D-7B125092CEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -53,12 +53,6 @@
     <t>XL</t>
   </si>
   <si>
-    <t>XXL</t>
-  </si>
-  <si>
-    <t>3XL</t>
-  </si>
-  <si>
     <t>created_at</t>
   </si>
   <si>
@@ -89,61 +83,79 @@
     <t>Anchor</t>
   </si>
   <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>Wolferine</t>
-  </si>
-  <si>
-    <t>Hopeless</t>
-  </si>
-  <si>
-    <t>No Love</t>
-  </si>
-  <si>
-    <t>Rose Coloured</t>
-  </si>
-  <si>
     <t>Daisy</t>
   </si>
   <si>
-    <t>Grass</t>
-  </si>
-  <si>
     <t>anchor</t>
   </si>
   <si>
-    <t>basic</t>
-  </si>
-  <si>
-    <t>snow</t>
-  </si>
-  <si>
-    <t>wolferine</t>
-  </si>
-  <si>
-    <t>hopeless</t>
-  </si>
-  <si>
-    <t>no-love</t>
-  </si>
-  <si>
-    <t>rose-coloured</t>
-  </si>
-  <si>
     <t>daisy</t>
   </si>
   <si>
-    <t>grass</t>
-  </si>
-  <si>
-    <t>Basic Red</t>
-  </si>
-  <si>
-    <t>basic-red</t>
+    <t>Mistake</t>
+  </si>
+  <si>
+    <t>mistake</t>
+  </si>
+  <si>
+    <t>Licate</t>
+  </si>
+  <si>
+    <t>licate</t>
+  </si>
+  <si>
+    <t>Crew</t>
+  </si>
+  <si>
+    <t>crew</t>
+  </si>
+  <si>
+    <t>Poppunk Suck</t>
+  </si>
+  <si>
+    <t>poppunk-suck</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>Basic Gn</t>
+  </si>
+  <si>
+    <t>basic-gn</t>
+  </si>
+  <si>
+    <t>Basic Logo</t>
+  </si>
+  <si>
+    <t>basic-logo</t>
+  </si>
+  <si>
+    <t>Basic Bk</t>
+  </si>
+  <si>
+    <t>basic-bk</t>
+  </si>
+  <si>
+    <t>Slop Anchor</t>
+  </si>
+  <si>
+    <t>slop-anchor</t>
+  </si>
+  <si>
+    <t>Sunglass Basic</t>
+  </si>
+  <si>
+    <t>sunglass-basic</t>
+  </si>
+  <si>
+    <t>Trapped</t>
+  </si>
+  <si>
+    <t>trapped</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -502,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D11C854-874A-442C-A5E8-60B8A1614FD1}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -527,34 +539,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -565,10 +577,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>65000</v>
@@ -577,13 +589,13 @@
         <v>130000</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -596,10 +608,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2">
         <v>65000</v>
@@ -608,13 +620,13 @@
         <v>130000</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -627,10 +639,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
         <v>65000</v>
@@ -639,13 +651,13 @@
         <v>130000</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -655,28 +667,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2">
-        <v>65000</v>
+        <v>90000</v>
       </c>
       <c r="F5" s="2">
-        <v>130000</v>
+        <v>185000</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -689,25 +701,25 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
-        <v>180000</v>
+        <v>90000</v>
       </c>
       <c r="F6" s="2">
-        <v>375000</v>
+        <v>185000</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
         <v>3</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -717,28 +729,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2">
-        <v>180000</v>
+        <v>75000</v>
       </c>
       <c r="F7" s="2">
-        <v>375000</v>
+        <v>145000</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -748,28 +760,28 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2">
-        <v>250000</v>
+        <v>50000</v>
       </c>
       <c r="F8" s="2">
-        <v>580000</v>
+        <v>110000</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -782,25 +794,25 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="2">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="F9" s="2">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -810,28 +822,28 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2">
-        <v>60000</v>
+        <v>85000</v>
       </c>
       <c r="F10" s="2">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -841,31 +853,118 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2">
-        <v>60000</v>
+        <v>95000</v>
       </c>
       <c r="F11" s="2">
-        <v>110000</v>
+        <v>185000</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2">
+        <v>75000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>145000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2">
+        <v>90000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>210000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2">
+        <v>35000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>80000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/FileExcel/Barang.xlsx
+++ b/database/FileExcel/Barang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DB09E7-E950-4EDE-B47D-7B125092CEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4034FE84-BE67-4D0B-8D48-42558275BFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
+    <workbookView xWindow="760" yWindow="0" windowWidth="6670" windowHeight="10080" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
   </bookViews>
   <sheets>
     <sheet name="barang" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -156,6 +156,48 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>gambar_disply</t>
+  </si>
+  <si>
+    <t>tees1-3.jpg</t>
+  </si>
+  <si>
+    <t>tees2-3.jpg</t>
+  </si>
+  <si>
+    <t>tees3-3.jpg</t>
+  </si>
+  <si>
+    <t>kemeja1-3.jpg</t>
+  </si>
+  <si>
+    <t>kemeja2-3.jpg</t>
+  </si>
+  <si>
+    <t>sleeve1-3.jpg</t>
+  </si>
+  <si>
+    <t>topi1-2.jpg</t>
+  </si>
+  <si>
+    <t>topi2-2.jpg</t>
+  </si>
+  <si>
+    <t>tas1-2.jpg</t>
+  </si>
+  <si>
+    <t>tas2-2.jpg</t>
+  </si>
+  <si>
+    <t>akse1-2.jpg</t>
+  </si>
+  <si>
+    <t>akse2-2.jpg</t>
+  </si>
+  <si>
+    <t>akse3-2.jpg</t>
   </si>
 </sst>
 </file>
@@ -516,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D11C854-874A-442C-A5E8-60B8A1614FD1}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -530,8 +572,8 @@
     <col min="7" max="7" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -563,9 +605,12 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -597,7 +642,9 @@
       <c r="I2">
         <v>50</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13">
@@ -628,7 +675,9 @@
       <c r="I3">
         <v>50</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13">
@@ -659,7 +708,9 @@
       <c r="I4">
         <v>50</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13">
@@ -690,7 +741,9 @@
       <c r="I5">
         <v>50</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13">
@@ -721,7 +774,9 @@
       <c r="I6">
         <v>50</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13">
@@ -752,7 +807,9 @@
       <c r="I7">
         <v>50</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13">
@@ -783,7 +840,9 @@
       <c r="I8">
         <v>50</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13">
@@ -814,7 +873,9 @@
       <c r="I9">
         <v>50</v>
       </c>
-      <c r="L9" s="1"/>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13">
@@ -845,7 +906,9 @@
       <c r="I10">
         <v>50</v>
       </c>
-      <c r="L10" s="1"/>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13">
@@ -876,7 +939,9 @@
       <c r="I11">
         <v>50</v>
       </c>
-      <c r="L11" s="1"/>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13">
@@ -907,6 +972,9 @@
       <c r="I12">
         <v>50</v>
       </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
@@ -936,6 +1004,9 @@
       <c r="I13">
         <v>50</v>
       </c>
+      <c r="J13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
@@ -964,6 +1035,9 @@
       </c>
       <c r="I14">
         <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/database/FileExcel/Barang.xlsx
+++ b/database/FileExcel/Barang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4034FE84-BE67-4D0B-8D48-42558275BFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253A5D92-D390-46A2-B466-09666C31680D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="0" windowWidth="6670" windowHeight="10080" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
   </bookViews>
   <sheets>
     <sheet name="barang" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -198,6 +197,12 @@
   </si>
   <si>
     <t>akse3-2.jpg</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>trending</t>
   </si>
 </sst>
 </file>
@@ -556,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D11C854-874A-442C-A5E8-60B8A1614FD1}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -572,11 +577,12 @@
     <col min="7" max="7" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.7265625" customWidth="1"/>
+    <col min="12" max="13" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,16 +611,22 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -642,12 +654,18 @@
       <c r="I2">
         <v>50</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -675,12 +693,18 @@
       <c r="I3">
         <v>50</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -708,12 +732,18 @@
       <c r="I4">
         <v>50</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -741,12 +771,18 @@
       <c r="I5">
         <v>50</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -774,12 +810,18 @@
       <c r="I6">
         <v>50</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -807,12 +849,18 @@
       <c r="I7">
         <v>50</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -840,12 +888,18 @@
       <c r="I8">
         <v>50</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -873,12 +927,18 @@
       <c r="I9">
         <v>50</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -906,12 +966,18 @@
       <c r="I10">
         <v>50</v>
       </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -939,12 +1005,18 @@
       <c r="I11">
         <v>50</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -972,11 +1044,17 @@
       <c r="I12">
         <v>50</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1004,11 +1082,17 @@
       <c r="I13">
         <v>50</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1036,7 +1120,13 @@
       <c r="I14">
         <v>50</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
         <v>54</v>
       </c>
     </row>

--- a/database/FileExcel/Barang.xlsx
+++ b/database/FileExcel/Barang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253A5D92-D390-46A2-B466-09666C31680D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F3D66-E5A3-4F5A-BB79-5BC73B5B5EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
+    <workbookView xWindow="8130" yWindow="600" windowWidth="6670" windowHeight="10080" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
   </bookViews>
   <sheets>
     <sheet name="barang" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -40,18 +40,6 @@
     <t>nama_barang</t>
   </si>
   <si>
-    <t>qty</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>XL</t>
-  </si>
-  <si>
     <t>created_at</t>
   </si>
   <si>
@@ -67,142 +55,181 @@
     <t>deskripsi</t>
   </si>
   <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
+    <t>Daisy</t>
+  </si>
+  <si>
+    <t>anchor</t>
+  </si>
+  <si>
+    <t>daisy</t>
+  </si>
+  <si>
+    <t>Mistake</t>
+  </si>
+  <si>
+    <t>mistake</t>
+  </si>
+  <si>
+    <t>Licate</t>
+  </si>
+  <si>
+    <t>licate</t>
+  </si>
+  <si>
+    <t>Crew</t>
+  </si>
+  <si>
+    <t>crew</t>
+  </si>
+  <si>
+    <t>Poppunk Suck</t>
+  </si>
+  <si>
+    <t>poppunk-suck</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>Basic Gn</t>
+  </si>
+  <si>
+    <t>basic-gn</t>
+  </si>
+  <si>
+    <t>Basic Logo</t>
+  </si>
+  <si>
+    <t>basic-logo</t>
+  </si>
+  <si>
+    <t>Basic Bk</t>
+  </si>
+  <si>
+    <t>basic-bk</t>
+  </si>
+  <si>
+    <t>Slop Anchor</t>
+  </si>
+  <si>
+    <t>slop-anchor</t>
+  </si>
+  <si>
+    <t>Sunglass Basic</t>
+  </si>
+  <si>
+    <t>sunglass-basic</t>
+  </si>
+  <si>
+    <t>Trapped</t>
+  </si>
+  <si>
+    <t>trapped</t>
+  </si>
+  <si>
+    <t>gambar_disply</t>
+  </si>
+  <si>
+    <t>tees1-3.jpg</t>
+  </si>
+  <si>
+    <t>tees2-3.jpg</t>
+  </si>
+  <si>
+    <t>tees3-3.jpg</t>
+  </si>
+  <si>
+    <t>kemeja1-3.jpg</t>
+  </si>
+  <si>
+    <t>kemeja2-3.jpg</t>
+  </si>
+  <si>
+    <t>sleeve1-3.jpg</t>
+  </si>
+  <si>
+    <t>topi1-2.jpg</t>
+  </si>
+  <si>
+    <t>topi2-2.jpg</t>
+  </si>
+  <si>
+    <t>tas1-2.jpg</t>
+  </si>
+  <si>
+    <t>tas2-2.jpg</t>
+  </si>
+  <si>
+    <t>akse1-2.jpg</t>
+  </si>
+  <si>
+    <t>akse2-2.jpg</t>
+  </si>
+  <si>
+    <t>akse3-2.jpg</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>trending</t>
+  </si>
+  <si>
+    <t>code_barang</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>TS002</t>
+  </si>
+  <si>
+    <t>TS003</t>
+  </si>
+  <si>
+    <t>KEM001</t>
+  </si>
+  <si>
+    <t>KEM002</t>
+  </si>
+  <si>
+    <t>SLV001</t>
+  </si>
+  <si>
+    <t>HAT001</t>
+  </si>
+  <si>
+    <t>HAT002</t>
+  </si>
+  <si>
+    <t>BAG001</t>
+  </si>
+  <si>
+    <t>BAG002</t>
+  </si>
+  <si>
+    <t>AKS001</t>
+  </si>
+  <si>
+    <t>AKS002</t>
+  </si>
+  <si>
+    <t>AKS003</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>hpp</t>
-  </si>
-  <si>
-    <t>Anchor</t>
-  </si>
-  <si>
-    <t>Daisy</t>
-  </si>
-  <si>
-    <t>anchor</t>
-  </si>
-  <si>
-    <t>daisy</t>
-  </si>
-  <si>
-    <t>Mistake</t>
-  </si>
-  <si>
-    <t>mistake</t>
-  </si>
-  <si>
-    <t>Licate</t>
-  </si>
-  <si>
-    <t>licate</t>
-  </si>
-  <si>
-    <t>Crew</t>
-  </si>
-  <si>
-    <t>crew</t>
-  </si>
-  <si>
-    <t>Poppunk Suck</t>
-  </si>
-  <si>
-    <t>poppunk-suck</t>
-  </si>
-  <si>
-    <t>Flag</t>
-  </si>
-  <si>
-    <t>Basic Gn</t>
-  </si>
-  <si>
-    <t>basic-gn</t>
-  </si>
-  <si>
-    <t>Basic Logo</t>
-  </si>
-  <si>
-    <t>basic-logo</t>
-  </si>
-  <si>
-    <t>Basic Bk</t>
-  </si>
-  <si>
-    <t>basic-bk</t>
-  </si>
-  <si>
-    <t>Slop Anchor</t>
-  </si>
-  <si>
-    <t>slop-anchor</t>
-  </si>
-  <si>
-    <t>Sunglass Basic</t>
-  </si>
-  <si>
-    <t>sunglass-basic</t>
-  </si>
-  <si>
-    <t>Trapped</t>
-  </si>
-  <si>
-    <t>trapped</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>gambar_disply</t>
-  </si>
-  <si>
-    <t>tees1-3.jpg</t>
-  </si>
-  <si>
-    <t>tees2-3.jpg</t>
-  </si>
-  <si>
-    <t>tees3-3.jpg</t>
-  </si>
-  <si>
-    <t>kemeja1-3.jpg</t>
-  </si>
-  <si>
-    <t>kemeja2-3.jpg</t>
-  </si>
-  <si>
-    <t>sleeve1-3.jpg</t>
-  </si>
-  <si>
-    <t>topi1-2.jpg</t>
-  </si>
-  <si>
-    <t>topi2-2.jpg</t>
-  </si>
-  <si>
-    <t>tas1-2.jpg</t>
-  </si>
-  <si>
-    <t>tas2-2.jpg</t>
-  </si>
-  <si>
-    <t>akse1-2.jpg</t>
-  </si>
-  <si>
-    <t>akse2-2.jpg</t>
-  </si>
-  <si>
-    <t>akse3-2.jpg</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>trending</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -243,10 +270,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,72 +587,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D11C854-874A-442C-A5E8-60B8A1614FD1}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.1796875" customWidth="1"/>
     <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" customWidth="1"/>
     <col min="7" max="7" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.7265625" customWidth="1"/>
-    <col min="12" max="13" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.7265625" customWidth="1"/>
+    <col min="10" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" t="s">
-        <v>56</v>
-      </c>
       <c r="L1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -634,38 +653,32 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2">
-        <v>65000</v>
-      </c>
-      <c r="F2" s="2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
         <v>130000</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>50</v>
-      </c>
-      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -673,38 +686,32 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2">
-        <v>65000</v>
-      </c>
-      <c r="F3" s="2">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
         <v>130000</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>50</v>
-      </c>
-      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -712,38 +719,32 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2">
-        <v>65000</v>
-      </c>
-      <c r="F4" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
         <v>130000</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>50</v>
-      </c>
-      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -751,38 +752,32 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2">
-        <v>90000</v>
-      </c>
-      <c r="F5" s="2">
-        <v>185000</v>
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>180000</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>50</v>
-      </c>
-      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -790,38 +785,32 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2">
-        <v>90000</v>
-      </c>
-      <c r="F6" s="2">
-        <v>185000</v>
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>180000</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>50</v>
-      </c>
-      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -829,38 +818,32 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2">
-        <v>75000</v>
-      </c>
-      <c r="F7" s="2">
-        <v>145000</v>
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>170000</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>50</v>
-      </c>
-      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
@@ -868,38 +851,32 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2">
-        <v>50000</v>
-      </c>
-      <c r="F8" s="2">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
         <v>110000</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
         <v>40</v>
       </c>
-      <c r="I8">
-        <v>50</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
@@ -907,38 +884,32 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2">
-        <v>50000</v>
-      </c>
-      <c r="F9" s="2">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
         <v>110000</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9">
-        <v>50</v>
-      </c>
-      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>49</v>
-      </c>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
@@ -946,38 +917,32 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2">
-        <v>85000</v>
-      </c>
-      <c r="F10" s="2">
-        <v>150000</v>
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>135000</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10">
-        <v>50</v>
-      </c>
-      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
@@ -985,38 +950,32 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2">
-        <v>95000</v>
-      </c>
-      <c r="F11" s="2">
-        <v>185000</v>
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>135000</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11">
-        <v>50</v>
-      </c>
-      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1024,37 +983,31 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2">
-        <v>75000</v>
-      </c>
-      <c r="F12" s="2">
-        <v>145000</v>
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>150000</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12">
-        <v>50</v>
-      </c>
-      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="I12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1062,37 +1015,31 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2">
-        <v>90000</v>
-      </c>
-      <c r="F13" s="2">
-        <v>210000</v>
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>185000</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13">
-        <v>50</v>
-      </c>
-      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="I13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1100,34 +1047,28 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2">
-        <v>35000</v>
-      </c>
-      <c r="F14" s="2">
-        <v>80000</v>
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>50000</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14">
-        <v>50</v>
-      </c>
-      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>54</v>
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/database/FileExcel/Barang.xlsx
+++ b/database/FileExcel/Barang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F3D66-E5A3-4F5A-BB79-5BC73B5B5EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB7F50B-05F8-474D-A9E1-38B247AE75A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="600" windowWidth="6670" windowHeight="10080" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
+    <workbookView xWindow="1750" yWindow="410" windowWidth="6670" windowHeight="10080" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
   </bookViews>
   <sheets>
     <sheet name="barang" sheetId="2" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>updated_at</t>
   </si>
   <si>
-    <t>id_category</t>
-  </si>
-  <si>
     <t>slug</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>trending</t>
   </si>
   <si>
-    <t>code_barang</t>
-  </si>
-  <si>
     <t>TS001</t>
   </si>
   <si>
@@ -223,13 +217,19 @@
     <t>AKS003</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>id_kategori</t>
+  </si>
+  <si>
+    <t>kode_barang</t>
+  </si>
+  <si>
+    <t>harga</t>
   </si>
 </sst>
 </file>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D11C854-874A-442C-A5E8-60B8A1614FD1}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -653,28 +653,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
       <c r="F2">
         <v>130000</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -686,28 +686,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
       </c>
       <c r="F3">
         <v>130000</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -719,28 +719,28 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
       <c r="F4">
         <v>130000</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -752,28 +752,28 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>180000</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M5" s="1"/>
     </row>
@@ -785,28 +785,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
       </c>
       <c r="F6">
         <v>180000</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6" s="1"/>
     </row>
@@ -818,28 +818,28 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>170000</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -851,28 +851,28 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
       </c>
       <c r="F8">
         <v>110000</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="1"/>
     </row>
@@ -884,28 +884,28 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>110000</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -917,28 +917,28 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
       </c>
       <c r="F10">
         <v>135000</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -950,28 +950,28 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
         <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
       </c>
       <c r="F11">
         <v>135000</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M11" s="1"/>
     </row>
@@ -983,28 +983,28 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
         <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
       </c>
       <c r="F12">
         <v>150000</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1015,28 +1015,28 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
         <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
       </c>
       <c r="F13">
         <v>185000</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1047,28 +1047,28 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
         <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
       </c>
       <c r="F14">
         <v>50000</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/database/FileExcel/Barang.xlsx
+++ b/database/FileExcel/Barang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB7F50B-05F8-474D-A9E1-38B247AE75A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EC9D5B-06C1-4148-87C2-AFD7BF101909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1750" yWindow="410" windowWidth="6670" windowHeight="10080" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
+    <workbookView xWindow="5550" yWindow="110" windowWidth="11440" windowHeight="9330" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
   </bookViews>
   <sheets>
     <sheet name="barang" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -52,126 +52,9 @@
     <t>deskripsi</t>
   </si>
   <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>Anchor</t>
-  </si>
-  <si>
-    <t>Daisy</t>
-  </si>
-  <si>
-    <t>anchor</t>
-  </si>
-  <si>
-    <t>daisy</t>
-  </si>
-  <si>
-    <t>Mistake</t>
-  </si>
-  <si>
-    <t>mistake</t>
-  </si>
-  <si>
-    <t>Licate</t>
-  </si>
-  <si>
-    <t>licate</t>
-  </si>
-  <si>
-    <t>Crew</t>
-  </si>
-  <si>
-    <t>crew</t>
-  </si>
-  <si>
-    <t>Poppunk Suck</t>
-  </si>
-  <si>
-    <t>poppunk-suck</t>
-  </si>
-  <si>
-    <t>Flag</t>
-  </si>
-  <si>
-    <t>Basic Gn</t>
-  </si>
-  <si>
-    <t>basic-gn</t>
-  </si>
-  <si>
-    <t>Basic Logo</t>
-  </si>
-  <si>
-    <t>basic-logo</t>
-  </si>
-  <si>
-    <t>Basic Bk</t>
-  </si>
-  <si>
-    <t>basic-bk</t>
-  </si>
-  <si>
-    <t>Slop Anchor</t>
-  </si>
-  <si>
-    <t>slop-anchor</t>
-  </si>
-  <si>
-    <t>Sunglass Basic</t>
-  </si>
-  <si>
-    <t>sunglass-basic</t>
-  </si>
-  <si>
-    <t>Trapped</t>
-  </si>
-  <si>
-    <t>trapped</t>
-  </si>
-  <si>
     <t>gambar_disply</t>
   </si>
   <si>
-    <t>tees1-3.jpg</t>
-  </si>
-  <si>
-    <t>tees2-3.jpg</t>
-  </si>
-  <si>
-    <t>tees3-3.jpg</t>
-  </si>
-  <si>
-    <t>kemeja1-3.jpg</t>
-  </si>
-  <si>
-    <t>kemeja2-3.jpg</t>
-  </si>
-  <si>
-    <t>sleeve1-3.jpg</t>
-  </si>
-  <si>
-    <t>topi1-2.jpg</t>
-  </si>
-  <si>
-    <t>topi2-2.jpg</t>
-  </si>
-  <si>
-    <t>tas1-2.jpg</t>
-  </si>
-  <si>
-    <t>tas2-2.jpg</t>
-  </si>
-  <si>
-    <t>akse1-2.jpg</t>
-  </si>
-  <si>
-    <t>akse2-2.jpg</t>
-  </si>
-  <si>
-    <t>akse3-2.jpg</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -184,45 +67,9 @@
     <t>TS002</t>
   </si>
   <si>
-    <t>TS003</t>
-  </si>
-  <si>
-    <t>KEM001</t>
-  </si>
-  <si>
-    <t>KEM002</t>
-  </si>
-  <si>
-    <t>SLV001</t>
-  </si>
-  <si>
-    <t>HAT001</t>
-  </si>
-  <si>
-    <t>HAT002</t>
-  </si>
-  <si>
-    <t>BAG001</t>
-  </si>
-  <si>
-    <t>BAG002</t>
-  </si>
-  <si>
-    <t>AKS001</t>
-  </si>
-  <si>
-    <t>AKS002</t>
-  </si>
-  <si>
-    <t>AKS003</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>id_kategori</t>
   </si>
   <si>
@@ -230,13 +77,148 @@
   </si>
   <si>
     <t>harga</t>
+  </si>
+  <si>
+    <t>Produk Morfeen Clothing Brand dibuat di Kota Malang, Jawa Timur, Indonesia. Order akan diproses paling lambat 1x24 jam setelah pembayaran.</t>
+  </si>
+  <si>
+    <t>SL001</t>
+  </si>
+  <si>
+    <t>HD001</t>
+  </si>
+  <si>
+    <t>HD002</t>
+  </si>
+  <si>
+    <t>BG001</t>
+  </si>
+  <si>
+    <t>BG002</t>
+  </si>
+  <si>
+    <t>SC001</t>
+  </si>
+  <si>
+    <t>SR001</t>
+  </si>
+  <si>
+    <t>JY001</t>
+  </si>
+  <si>
+    <t>Nine Fires</t>
+  </si>
+  <si>
+    <t>nine-fires</t>
+  </si>
+  <si>
+    <t>Years V1</t>
+  </si>
+  <si>
+    <t>years-v1</t>
+  </si>
+  <si>
+    <t>Nine Years V1</t>
+  </si>
+  <si>
+    <t>nine-years-v1</t>
+  </si>
+  <si>
+    <t>Bigwire</t>
+  </si>
+  <si>
+    <t>bigwire</t>
+  </si>
+  <si>
+    <t>ts1.jpg</t>
+  </si>
+  <si>
+    <t>ts4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nine Years </t>
+  </si>
+  <si>
+    <t>nine-years</t>
+  </si>
+  <si>
+    <t>Letter White</t>
+  </si>
+  <si>
+    <t>letter-white</t>
+  </si>
+  <si>
+    <t>Diversity</t>
+  </si>
+  <si>
+    <t>diversity</t>
+  </si>
+  <si>
+    <t>Years V2</t>
+  </si>
+  <si>
+    <t>years-v2</t>
+  </si>
+  <si>
+    <t>Break Fleece</t>
+  </si>
+  <si>
+    <t>break-fleece</t>
+  </si>
+  <si>
+    <t>Anchor Black</t>
+  </si>
+  <si>
+    <t>anchor-black</t>
+  </si>
+  <si>
+    <t>sl1.jpg</t>
+  </si>
+  <si>
+    <t>hd1.jpg</t>
+  </si>
+  <si>
+    <t>sc1.jpg</t>
+  </si>
+  <si>
+    <t>sr1.jpg</t>
+  </si>
+  <si>
+    <t>jy1.jpg</t>
+  </si>
+  <si>
+    <t>hd2.jpg</t>
+  </si>
+  <si>
+    <t>tas1.jpg</t>
+  </si>
+  <si>
+    <t>tas3.jpg</t>
+  </si>
+  <si>
+    <t>Rp. 150.000</t>
+  </si>
+  <si>
+    <t>Rp. 350.000</t>
+  </si>
+  <si>
+    <t>Rp. 170.000</t>
+  </si>
+  <si>
+    <t>Rp. 60.000</t>
+  </si>
+  <si>
+    <t>Rp. 250.000</t>
+  </si>
+  <si>
+    <t>Rp. 180.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +230,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri "/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -587,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D11C854-874A-442C-A5E8-60B8A1614FD1}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -612,10 +600,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -624,19 +612,19 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -653,28 +641,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>130000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -686,28 +674,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>130000</v>
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -716,31 +704,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>130000</v>
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -749,31 +737,31 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>180000</v>
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M5" s="1"/>
     </row>
@@ -782,31 +770,31 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>180000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M6" s="1"/>
     </row>
@@ -815,33 +803,32 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>170000</v>
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="1"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
@@ -851,227 +838,128 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>110000</v>
-      </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="1"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9">
-        <v>110000</v>
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="1"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10">
-        <v>135000</v>
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="1"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11">
-        <v>135000</v>
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12">
-        <v>150000</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13">
-        <v>185000</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14">
-        <v>50000</v>
-      </c>
-      <c r="G14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/database/FileExcel/Barang.xlsx
+++ b/database/FileExcel/Barang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EC9D5B-06C1-4148-87C2-AFD7BF101909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BB7EA8-EC14-4D0B-A9CB-A6062AA10A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="110" windowWidth="11440" windowHeight="9330" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
+    <workbookView xWindow="6570" yWindow="2990" windowWidth="11440" windowHeight="7810" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
   </bookViews>
   <sheets>
     <sheet name="barang" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -194,24 +194,6 @@
   </si>
   <si>
     <t>tas3.jpg</t>
-  </si>
-  <si>
-    <t>Rp. 150.000</t>
-  </si>
-  <si>
-    <t>Rp. 350.000</t>
-  </si>
-  <si>
-    <t>Rp. 170.000</t>
-  </si>
-  <si>
-    <t>Rp. 60.000</t>
-  </si>
-  <si>
-    <t>Rp. 250.000</t>
-  </si>
-  <si>
-    <t>Rp. 180.000</t>
   </si>
 </sst>
 </file>
@@ -578,7 +560,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -649,8 +631,8 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
-        <v>54</v>
+      <c r="F2">
+        <v>150000</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -682,8 +664,8 @@
       <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" t="s">
-        <v>54</v>
+      <c r="F3">
+        <v>150000</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -715,8 +697,8 @@
       <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>54</v>
+      <c r="F4">
+        <v>150000</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -748,8 +730,8 @@
       <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
-        <v>55</v>
+      <c r="F5">
+        <v>350000</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -781,8 +763,8 @@
       <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
-        <v>55</v>
+      <c r="F6">
+        <v>350000</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -814,8 +796,8 @@
       <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
-        <v>56</v>
+      <c r="F7">
+        <v>170000</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -846,8 +828,8 @@
       <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="F8" t="s">
-        <v>54</v>
+      <c r="F8">
+        <v>150000</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
@@ -878,8 +860,8 @@
       <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s">
-        <v>57</v>
+      <c r="F9">
+        <v>60000</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -910,8 +892,8 @@
       <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="F10" t="s">
-        <v>58</v>
+      <c r="F10">
+        <v>250000</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -942,8 +924,8 @@
       <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
-        <v>59</v>
+      <c r="F11">
+        <v>180000</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
